--- a/Client/Assets/Editor/Excels/SelectInfo.xlsx
+++ b/Client/Assets/Editor/Excels/SelectInfo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400CF7A3-8A88-45BA-A94E-06694E5021E6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6334AFC-D05C-4AD8-BCC9-9404E1551D80}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,26 +152,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -467,77 +485,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>101</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>101</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>101</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>102</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>102</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>104</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>103</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>102</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Client/Assets/Editor/Excels/SelectInfo.xlsx
+++ b/Client/Assets/Editor/Excels/SelectInfo.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6334AFC-D05C-4AD8-BCC9-9404E1551D80}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -470,10 +469,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
